--- a/structure/pms.xlsx
+++ b/structure/pms.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="175">
   <si>
     <t>编号</t>
   </si>
@@ -40,6 +40,9 @@
     <t>允许为空</t>
   </si>
   <si>
+    <t>主键</t>
+  </si>
+  <si>
     <t>默认值</t>
   </si>
   <si>
@@ -104,6 +107,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>PRI</t>
   </si>
   <si>
     <t>公司ID</t>
@@ -674,72 +680,72 @@
   <sheetData>
     <row r="2">
       <c r="B2" t="s" s="3">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s" s="3">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s" s="3">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s" s="3">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s" s="3">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s" s="3">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s" s="3">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s" s="3">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s" s="3">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s" s="3">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s" s="3">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s" s="3">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s" s="3">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s" s="3">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -790,25 +796,31 @@
       <c r="F1" t="s" s="1">
         <v>5</v>
       </c>
+      <c r="G1" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <f>row()-1</f>
       </c>
       <c r="B2" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>112</v>
+        <v>10</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>114</v>
       </c>
     </row>
     <row r="3">
@@ -816,19 +828,22 @@
         <f>row()-1</f>
       </c>
       <c r="B3" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>114</v>
+        <v>10</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>116</v>
       </c>
     </row>
     <row r="4">
@@ -836,19 +851,22 @@
         <f>row()-1</f>
       </c>
       <c r="B4" t="s" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>88</v>
+        <v>10</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>90</v>
       </c>
     </row>
     <row r="5">
@@ -856,19 +874,22 @@
         <f>row()-1</f>
       </c>
       <c r="B5" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>115</v>
+        <v>10</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>117</v>
       </c>
     </row>
     <row r="6">
@@ -876,19 +897,22 @@
         <f>row()-1</f>
       </c>
       <c r="B6" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>116</v>
+        <v>10</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>118</v>
       </c>
     </row>
     <row r="7">
@@ -896,19 +920,22 @@
         <f>row()-1</f>
       </c>
       <c r="B7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>117</v>
+        <v>10</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>119</v>
       </c>
     </row>
     <row r="8">
@@ -916,19 +943,22 @@
         <f>row()-1</f>
       </c>
       <c r="B8" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>119</v>
+        <v>10</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>121</v>
       </c>
     </row>
     <row r="9">
@@ -936,19 +966,22 @@
         <f>row()-1</f>
       </c>
       <c r="B9" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>120</v>
+        <v>10</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>122</v>
       </c>
     </row>
     <row r="10">
@@ -956,19 +989,22 @@
         <f>row()-1</f>
       </c>
       <c r="B10" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>45</v>
       </c>
     </row>
     <row r="11">
@@ -976,19 +1012,22 @@
         <f>row()-1</f>
       </c>
       <c r="B11" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>45</v>
+        <v>10</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>47</v>
       </c>
     </row>
     <row r="12">
@@ -996,19 +1035,22 @@
         <f>row()-1</f>
       </c>
       <c r="B12" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>49</v>
       </c>
     </row>
     <row r="13">
@@ -1016,19 +1058,22 @@
         <f>row()-1</f>
       </c>
       <c r="B13" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>49</v>
+        <v>10</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1063,25 +1108,31 @@
       <c r="F1" t="s" s="1">
         <v>5</v>
       </c>
+      <c r="G1" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <f>row()-1</f>
       </c>
       <c r="B2" t="s" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>7</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s" s="2">
-        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1089,19 +1140,22 @@
         <f>row()-1</f>
       </c>
       <c r="B3" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -1109,19 +1163,22 @@
         <f>row()-1</f>
       </c>
       <c r="B4" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>122</v>
+        <v>10</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>124</v>
       </c>
     </row>
     <row r="5">
@@ -1129,19 +1186,22 @@
         <f>row()-1</f>
       </c>
       <c r="B5" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>124</v>
+        <v>10</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>126</v>
       </c>
     </row>
     <row r="6">
@@ -1149,19 +1209,22 @@
         <f>row()-1</f>
       </c>
       <c r="B6" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>125</v>
+        <v>10</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1196,25 +1259,31 @@
       <c r="F1" t="s" s="1">
         <v>5</v>
       </c>
+      <c r="G1" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <f>row()-1</f>
       </c>
       <c r="B2" t="s" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>7</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s" s="2">
-        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1222,19 +1291,22 @@
         <f>row()-1</f>
       </c>
       <c r="B3" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>26</v>
+        <v>10</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -1242,19 +1314,22 @@
         <f>row()-1</f>
       </c>
       <c r="B4" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1289,25 +1364,31 @@
       <c r="F1" t="s" s="1">
         <v>5</v>
       </c>
+      <c r="G1" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <f>row()-1</f>
       </c>
       <c r="B2" t="s" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>127</v>
+        <v>10</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>129</v>
       </c>
     </row>
     <row r="3">
@@ -1315,19 +1396,22 @@
         <f>row()-1</f>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>128</v>
+        <v>10</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>130</v>
       </c>
     </row>
     <row r="4">
@@ -1335,19 +1419,22 @@
         <f>row()-1</f>
       </c>
       <c r="B4" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>129</v>
+        <v>10</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>131</v>
       </c>
     </row>
     <row r="5">
@@ -1355,19 +1442,22 @@
         <f>row()-1</f>
       </c>
       <c r="B5" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>130</v>
+        <v>10</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>132</v>
       </c>
     </row>
     <row r="6">
@@ -1375,19 +1465,22 @@
         <f>row()-1</f>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>131</v>
+        <v>10</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>133</v>
       </c>
     </row>
     <row r="7">
@@ -1395,19 +1488,22 @@
         <f>row()-1</f>
       </c>
       <c r="B7" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>133</v>
+        <v>10</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>135</v>
       </c>
     </row>
     <row r="8">
@@ -1415,19 +1511,22 @@
         <f>row()-1</f>
       </c>
       <c r="B8" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>135</v>
+        <v>10</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>137</v>
       </c>
     </row>
     <row r="9">
@@ -1435,19 +1534,22 @@
         <f>row()-1</f>
       </c>
       <c r="B9" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>137</v>
+        <v>10</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>139</v>
       </c>
     </row>
     <row r="10">
@@ -1455,19 +1557,22 @@
         <f>row()-1</f>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>139</v>
+        <v>10</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>141</v>
       </c>
     </row>
     <row r="11">
@@ -1475,19 +1580,22 @@
         <f>row()-1</f>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>141</v>
+        <v>10</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>143</v>
       </c>
     </row>
     <row r="12">
@@ -1495,19 +1603,22 @@
         <f>row()-1</f>
       </c>
       <c r="B12" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>143</v>
+        <v>10</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>145</v>
       </c>
     </row>
     <row r="13">
@@ -1515,19 +1626,22 @@
         <f>row()-1</f>
       </c>
       <c r="B13" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>145</v>
+        <v>10</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>147</v>
       </c>
     </row>
     <row r="14">
@@ -1535,19 +1649,22 @@
         <f>row()-1</f>
       </c>
       <c r="B14" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>147</v>
+        <v>10</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>149</v>
       </c>
     </row>
     <row r="15">
@@ -1555,19 +1672,22 @@
         <f>row()-1</f>
       </c>
       <c r="B15" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>149</v>
+        <v>10</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>151</v>
       </c>
     </row>
     <row r="16">
@@ -1575,19 +1695,22 @@
         <f>row()-1</f>
       </c>
       <c r="B16" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>151</v>
+        <v>10</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1622,25 +1745,31 @@
       <c r="F1" t="s" s="1">
         <v>5</v>
       </c>
+      <c r="G1" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <f>row()-1</f>
       </c>
       <c r="B2" t="s" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>7</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s" s="2">
-        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1648,19 +1777,22 @@
         <f>row()-1</f>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>86</v>
+        <v>10</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>88</v>
       </c>
     </row>
     <row r="4">
@@ -1668,19 +1800,22 @@
         <f>row()-1</f>
       </c>
       <c r="B4" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -1688,19 +1823,22 @@
         <f>row()-1</f>
       </c>
       <c r="B5" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>153</v>
+        <v>10</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>155</v>
       </c>
     </row>
     <row r="6">
@@ -1708,19 +1846,22 @@
         <f>row()-1</f>
       </c>
       <c r="B6" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>156</v>
       </c>
     </row>
     <row r="7">
@@ -1728,19 +1869,22 @@
         <f>row()-1</f>
       </c>
       <c r="B7" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>156</v>
+        <v>10</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1775,25 +1919,31 @@
       <c r="F1" t="s" s="1">
         <v>5</v>
       </c>
+      <c r="G1" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <f>row()-1</f>
       </c>
       <c r="B2" t="s" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>7</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s" s="2">
-        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1801,19 +1951,22 @@
         <f>row()-1</f>
       </c>
       <c r="B3" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -1821,19 +1974,22 @@
         <f>row()-1</f>
       </c>
       <c r="B4" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -1841,19 +1997,22 @@
         <f>row()-1</f>
       </c>
       <c r="B5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>158</v>
+        <v>10</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1888,25 +2047,31 @@
       <c r="F1" t="s" s="1">
         <v>5</v>
       </c>
+      <c r="G1" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <f>row()-1</f>
       </c>
       <c r="B2" t="s" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>7</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s" s="2">
-        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1914,19 +2079,22 @@
         <f>row()-1</f>
       </c>
       <c r="B3" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -1934,19 +2102,22 @@
         <f>row()-1</f>
       </c>
       <c r="B4" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -1954,19 +2125,22 @@
         <f>row()-1</f>
       </c>
       <c r="B5" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -1974,19 +2148,22 @@
         <f>row()-1</f>
       </c>
       <c r="B6" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -1994,19 +2171,22 @@
         <f>row()-1</f>
       </c>
       <c r="B7" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -2014,19 +2194,22 @@
         <f>row()-1</f>
       </c>
       <c r="B8" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2061,25 +2244,31 @@
       <c r="F1" t="s" s="1">
         <v>5</v>
       </c>
+      <c r="G1" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <f>row()-1</f>
       </c>
       <c r="B2" t="s" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>26</v>
+        <v>10</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -2087,19 +2276,22 @@
         <f>row()-1</f>
       </c>
       <c r="B3" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -2107,19 +2299,22 @@
         <f>row()-1</f>
       </c>
       <c r="B4" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -2127,19 +2322,22 @@
         <f>row()-1</f>
       </c>
       <c r="B5" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -2147,19 +2345,22 @@
         <f>row()-1</f>
       </c>
       <c r="B6" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>34</v>
+        <v>10</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -2167,19 +2368,22 @@
         <f>row()-1</f>
       </c>
       <c r="B7" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="8">
@@ -2187,19 +2391,22 @@
         <f>row()-1</f>
       </c>
       <c r="B8" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -2207,19 +2414,22 @@
         <f>row()-1</f>
       </c>
       <c r="B9" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="10">
@@ -2227,19 +2437,22 @@
         <f>row()-1</f>
       </c>
       <c r="B10" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>45</v>
       </c>
     </row>
     <row r="11">
@@ -2247,19 +2460,22 @@
         <f>row()-1</f>
       </c>
       <c r="B11" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>45</v>
+        <v>10</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>47</v>
       </c>
     </row>
     <row r="12">
@@ -2267,19 +2483,22 @@
         <f>row()-1</f>
       </c>
       <c r="B12" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>49</v>
       </c>
     </row>
     <row r="13">
@@ -2287,19 +2506,22 @@
         <f>row()-1</f>
       </c>
       <c r="B13" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>49</v>
+        <v>10</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2334,25 +2556,31 @@
       <c r="F1" t="s" s="1">
         <v>5</v>
       </c>
+      <c r="G1" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <f>row()-1</f>
       </c>
       <c r="B2" t="s" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -2360,19 +2588,22 @@
         <f>row()-1</f>
       </c>
       <c r="B3" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>53</v>
+        <v>10</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -2380,19 +2611,22 @@
         <f>row()-1</f>
       </c>
       <c r="B4" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>56</v>
+        <v>10</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -2400,19 +2634,22 @@
         <f>row()-1</f>
       </c>
       <c r="B5" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>58</v>
+        <v>10</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -2420,19 +2657,22 @@
         <f>row()-1</f>
       </c>
       <c r="B6" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>60</v>
+        <v>10</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>62</v>
       </c>
     </row>
     <row r="7">
@@ -2440,19 +2680,22 @@
         <f>row()-1</f>
       </c>
       <c r="B7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>61</v>
+        <v>10</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -2460,19 +2703,22 @@
         <f>row()-1</f>
       </c>
       <c r="B8" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>63</v>
+        <v>10</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -2480,19 +2726,22 @@
         <f>row()-1</f>
       </c>
       <c r="B9" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>65</v>
+        <v>10</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -2500,19 +2749,22 @@
         <f>row()-1</f>
       </c>
       <c r="B10" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>68</v>
+        <v>10</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2547,25 +2799,31 @@
       <c r="F1" t="s" s="1">
         <v>5</v>
       </c>
+      <c r="G1" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <f>row()-1</f>
       </c>
       <c r="B2" t="s" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>69</v>
+        <v>10</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -2573,19 +2831,22 @@
         <f>row()-1</f>
       </c>
       <c r="B3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>71</v>
+        <v>10</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -2593,19 +2854,22 @@
         <f>row()-1</f>
       </c>
       <c r="B4" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>73</v>
+        <v>10</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -2613,19 +2877,22 @@
         <f>row()-1</f>
       </c>
       <c r="B5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>75</v>
+        <v>10</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -2633,19 +2900,22 @@
         <f>row()-1</f>
       </c>
       <c r="B6" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>45</v>
       </c>
     </row>
     <row r="7">
@@ -2653,19 +2923,22 @@
         <f>row()-1</f>
       </c>
       <c r="B7" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>45</v>
+        <v>10</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>47</v>
       </c>
     </row>
     <row r="8">
@@ -2673,19 +2946,22 @@
         <f>row()-1</f>
       </c>
       <c r="B8" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>49</v>
       </c>
     </row>
     <row r="9">
@@ -2693,19 +2969,22 @@
         <f>row()-1</f>
       </c>
       <c r="B9" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>49</v>
+        <v>10</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2740,25 +3019,31 @@
       <c r="F1" t="s" s="1">
         <v>5</v>
       </c>
+      <c r="G1" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <f>row()-1</f>
       </c>
       <c r="B2" t="s" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>7</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s" s="2">
-        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2766,19 +3051,22 @@
         <f>row()-1</f>
       </c>
       <c r="B3" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>10</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -2786,19 +3074,22 @@
         <f>row()-1</f>
       </c>
       <c r="B4" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>10</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="5">
@@ -2806,19 +3097,22 @@
         <f>row()-1</f>
       </c>
       <c r="B5" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>78</v>
+        <v>10</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -2826,19 +3120,22 @@
         <f>row()-1</f>
       </c>
       <c r="B6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>10</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -2846,19 +3143,22 @@
         <f>row()-1</f>
       </c>
       <c r="B7" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>82</v>
+        <v>10</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -2866,19 +3166,22 @@
         <f>row()-1</f>
       </c>
       <c r="B8" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>83</v>
+        <v>10</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>85</v>
       </c>
     </row>
     <row r="9">
@@ -2886,19 +3189,22 @@
         <f>row()-1</f>
       </c>
       <c r="B9" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>84</v>
+        <v>10</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>86</v>
       </c>
     </row>
     <row r="10">
@@ -2906,19 +3212,22 @@
         <f>row()-1</f>
       </c>
       <c r="B10" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>45</v>
       </c>
     </row>
     <row r="11">
@@ -2926,19 +3235,22 @@
         <f>row()-1</f>
       </c>
       <c r="B11" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>45</v>
+        <v>10</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>47</v>
       </c>
     </row>
     <row r="12">
@@ -2946,19 +3258,22 @@
         <f>row()-1</f>
       </c>
       <c r="B12" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>49</v>
       </c>
     </row>
     <row r="13">
@@ -2966,19 +3281,22 @@
         <f>row()-1</f>
       </c>
       <c r="B13" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>49</v>
+        <v>10</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3013,25 +3331,31 @@
       <c r="F1" t="s" s="1">
         <v>5</v>
       </c>
+      <c r="G1" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <f>row()-1</f>
       </c>
       <c r="B2" t="s" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>7</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s" s="2">
-        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3039,19 +3363,22 @@
         <f>row()-1</f>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>86</v>
+        <v>10</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>88</v>
       </c>
     </row>
     <row r="4">
@@ -3059,19 +3386,22 @@
         <f>row()-1</f>
       </c>
       <c r="B4" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>88</v>
+        <v>10</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3106,25 +3436,31 @@
       <c r="F1" t="s" s="1">
         <v>5</v>
       </c>
+      <c r="G1" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <f>row()-1</f>
       </c>
       <c r="B2" t="s" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>7</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s" s="2">
-        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3132,19 +3468,22 @@
         <f>row()-1</f>
       </c>
       <c r="B3" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>90</v>
+        <v>10</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>92</v>
       </c>
     </row>
     <row r="4">
@@ -3152,19 +3491,22 @@
         <f>row()-1</f>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>92</v>
+        <v>10</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>94</v>
       </c>
     </row>
     <row r="5">
@@ -3172,19 +3514,22 @@
         <f>row()-1</f>
       </c>
       <c r="B5" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>93</v>
+        <v>10</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>95</v>
       </c>
     </row>
     <row r="6">
@@ -3192,19 +3537,22 @@
         <f>row()-1</f>
       </c>
       <c r="B6" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>95</v>
+        <v>10</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>97</v>
       </c>
     </row>
     <row r="7">
@@ -3212,19 +3560,22 @@
         <f>row()-1</f>
       </c>
       <c r="B7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>96</v>
+        <v>10</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>98</v>
       </c>
     </row>
     <row r="8">
@@ -3232,19 +3583,22 @@
         <f>row()-1</f>
       </c>
       <c r="B8" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>97</v>
+        <v>10</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>99</v>
       </c>
     </row>
     <row r="9">
@@ -3252,19 +3606,22 @@
         <f>row()-1</f>
       </c>
       <c r="B9" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -3272,19 +3629,22 @@
         <f>row()-1</f>
       </c>
       <c r="B10" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>45</v>
       </c>
     </row>
     <row r="11">
@@ -3292,19 +3652,22 @@
         <f>row()-1</f>
       </c>
       <c r="B11" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>45</v>
+        <v>10</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>47</v>
       </c>
     </row>
     <row r="12">
@@ -3312,19 +3675,22 @@
         <f>row()-1</f>
       </c>
       <c r="B12" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>49</v>
       </c>
     </row>
     <row r="13">
@@ -3332,19 +3698,22 @@
         <f>row()-1</f>
       </c>
       <c r="B13" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>49</v>
+        <v>10</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>51</v>
       </c>
     </row>
     <row r="14">
@@ -3352,19 +3721,22 @@
         <f>row()-1</f>
       </c>
       <c r="B14" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>99</v>
+        <v>10</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3399,25 +3771,31 @@
       <c r="F1" t="s" s="1">
         <v>5</v>
       </c>
+      <c r="G1" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <f>row()-1</f>
       </c>
       <c r="B2" t="s" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>86</v>
+        <v>10</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>88</v>
       </c>
     </row>
     <row r="3">
@@ -3425,19 +3803,22 @@
         <f>row()-1</f>
       </c>
       <c r="B3" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>100</v>
+        <v>10</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>102</v>
       </c>
     </row>
     <row r="4">
@@ -3445,19 +3826,22 @@
         <f>row()-1</f>
       </c>
       <c r="B4" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>101</v>
+        <v>10</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>103</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3849,22 @@
         <f>row()-1</f>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>103</v>
+        <v>10</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>105</v>
       </c>
     </row>
     <row r="6">
@@ -3485,19 +3872,22 @@
         <f>row()-1</f>
       </c>
       <c r="B6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -3505,19 +3895,22 @@
         <f>row()-1</f>
       </c>
       <c r="B7" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>105</v>
+        <v>10</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>107</v>
       </c>
     </row>
     <row r="8">
@@ -3525,19 +3918,22 @@
         <f>row()-1</f>
       </c>
       <c r="B8" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>107</v>
+        <v>10</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>109</v>
       </c>
     </row>
     <row r="9">
@@ -3545,19 +3941,22 @@
         <f>row()-1</f>
       </c>
       <c r="B9" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>109</v>
+        <v>10</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>111</v>
       </c>
     </row>
     <row r="10">
@@ -3565,19 +3964,22 @@
         <f>row()-1</f>
       </c>
       <c r="B10" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>109</v>
+        <v>10</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>111</v>
       </c>
     </row>
     <row r="11">
@@ -3585,19 +3987,22 @@
         <f>row()-1</f>
       </c>
       <c r="B11" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>45</v>
       </c>
     </row>
     <row r="12">
@@ -3605,19 +4010,22 @@
         <f>row()-1</f>
       </c>
       <c r="B12" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>45</v>
+        <v>10</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -3625,19 +4033,22 @@
         <f>row()-1</f>
       </c>
       <c r="B13" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>49</v>
       </c>
     </row>
     <row r="14">
@@ -3645,19 +4056,22 @@
         <f>row()-1</f>
       </c>
       <c r="B14" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>49</v>
+        <v>10</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/structure/pms.xlsx
+++ b/structure/pms.xlsx
@@ -7,26 +7,28 @@
   </bookViews>
   <sheets>
     <sheet name="索引" r:id="rId3" sheetId="1"/>
-    <sheet name="T_PERSON_PHONE" r:id="rId4" sheetId="2"/>
-    <sheet name="T_COMPANY" r:id="rId5" sheetId="3"/>
-    <sheet name="T_MESSAGE" r:id="rId6" sheetId="4"/>
+    <sheet name="T_COMPANY" r:id="rId4" sheetId="2"/>
+    <sheet name="T_COMPANY_PERSON" r:id="rId5" sheetId="3"/>
+    <sheet name="T_COMPANY_USER" r:id="rId6" sheetId="4"/>
     <sheet name="T_HOLIDAY" r:id="rId7" sheetId="5"/>
-    <sheet name="T_PERSON" r:id="rId8" sheetId="6"/>
-    <sheet name="T_PROJECT_IBEACON" r:id="rId9" sheetId="7"/>
-    <sheet name="T_USER" r:id="rId10" sheetId="8"/>
-    <sheet name="T_PROJECT" r:id="rId11" sheetId="9"/>
-    <sheet name="T_IBEACON" r:id="rId12" sheetId="10"/>
-    <sheet name="T_PERSON_ATTENDANCE" r:id="rId13" sheetId="11"/>
-    <sheet name="T_COMPANY_PERSON" r:id="rId14" sheetId="12"/>
-    <sheet name="T_PROJECT_PLAN" r:id="rId15" sheetId="13"/>
+    <sheet name="T_IBEACON" r:id="rId8" sheetId="6"/>
+    <sheet name="T_MESSAGE" r:id="rId9" sheetId="7"/>
+    <sheet name="T_MESSAGE_PERSON" r:id="rId10" sheetId="8"/>
+    <sheet name="T_PERSON" r:id="rId11" sheetId="9"/>
+    <sheet name="T_PERSON_ATTENDANCE" r:id="rId12" sheetId="10"/>
+    <sheet name="T_PERSON_PHONE" r:id="rId13" sheetId="11"/>
+    <sheet name="T_PROJECT" r:id="rId14" sheetId="12"/>
+    <sheet name="T_PROJECT_IBEACON" r:id="rId15" sheetId="13"/>
     <sheet name="T_PROJECT_PERSON" r:id="rId16" sheetId="14"/>
-    <sheet name="T_MESSAGE_PERSON" r:id="rId17" sheetId="15"/>
+    <sheet name="T_PROJECT_PLAN" r:id="rId17" sheetId="15"/>
+    <sheet name="T_PROJECT_USER" r:id="rId18" sheetId="16"/>
+    <sheet name="T_USER" r:id="rId19" sheetId="17"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3248" uniqueCount="183">
   <si>
     <t>编号</t>
   </si>
@@ -49,16 +51,100 @@
     <t>备注</t>
   </si>
   <si>
+    <t>LEADER</t>
+  </si>
+  <si>
+    <t>VARCHAR2(64)</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>公司负责人</t>
+  </si>
+  <si>
+    <t>PARENT_ID</t>
+  </si>
+  <si>
+    <t>上级公司ID</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>公司名称</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>公司编码</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
-    <t>VARCHAR2(64)</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t/>
+    <t>N</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <t>公司ID</t>
+  </si>
+  <si>
+    <t>MODIFY_USER</t>
+  </si>
+  <si>
+    <t>修改人</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>NUMBER(22)</t>
+  </si>
+  <si>
+    <t>公司状态</t>
+  </si>
+  <si>
+    <t>REMARK</t>
+  </si>
+  <si>
+    <t>VARCHAR2(256)</t>
+  </si>
+  <si>
+    <t>公司备注</t>
+  </si>
+  <si>
+    <t>CREATE_TIME</t>
+  </si>
+  <si>
+    <t>DATE(7)</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>CREATE_USER</t>
+  </si>
+  <si>
+    <t>创建人</t>
+  </si>
+  <si>
+    <t>MODIFY_TIME</t>
+  </si>
+  <si>
+    <t>修改时间</t>
+  </si>
+  <si>
+    <t>PHONE</t>
+  </si>
+  <si>
+    <t>联系电话</t>
   </si>
   <si>
     <t>PERSON_ID</t>
@@ -67,238 +153,370 @@
     <t>人员ID</t>
   </si>
   <si>
+    <t>COMPANY_ID</t>
+  </si>
+  <si>
+    <t>USER_ID</t>
+  </si>
+  <si>
+    <t>用户ID</t>
+  </si>
+  <si>
+    <t>HOLIDAY_STATE</t>
+  </si>
+  <si>
+    <t>节日状态(1放假，2上班)</t>
+  </si>
+  <si>
+    <t>HOLIDAY_NAME</t>
+  </si>
+  <si>
+    <t>节日名称</t>
+  </si>
+  <si>
+    <t>节日ID</t>
+  </si>
+  <si>
+    <t>HOLIDAY_DATE</t>
+  </si>
+  <si>
+    <t>节日日期</t>
+  </si>
+  <si>
+    <t>ibeacon设备名称</t>
+  </si>
+  <si>
+    <t>ibeacon设备编码</t>
+  </si>
+  <si>
+    <t>ibeacon设备ID</t>
+  </si>
+  <si>
+    <t>MINOR</t>
+  </si>
+  <si>
+    <t>ibeacon设备MINOR</t>
+  </si>
+  <si>
+    <t>MAJOR</t>
+  </si>
+  <si>
+    <t>ibeacon设备MAJOR</t>
+  </si>
+  <si>
+    <t>ibeacon设备状态</t>
+  </si>
+  <si>
+    <t>ibeacon设备备注</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>ibeacon设备地址</t>
+  </si>
+  <si>
+    <t>CONTENT</t>
+  </si>
+  <si>
+    <t>VARCHAR2(4000)</t>
+  </si>
+  <si>
+    <t>消息内容</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>VARCHAR2(200)</t>
+  </si>
+  <si>
+    <t>消息标题</t>
+  </si>
+  <si>
+    <t>消息ID</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>消息类型 1系统消息 2普通消息</t>
+  </si>
+  <si>
+    <t>RECEIVE</t>
+  </si>
+  <si>
+    <t>CLOB(4000)</t>
+  </si>
+  <si>
+    <t>接收对象</t>
+  </si>
+  <si>
+    <t>消息状态 0草稿 1已发送</t>
+  </si>
+  <si>
+    <t>SEND</t>
+  </si>
+  <si>
+    <t>发送人</t>
+  </si>
+  <si>
+    <t>RECEIVE_TYPE</t>
+  </si>
+  <si>
+    <t>接收类型 (系统消息)1全体 (普通消息)2公司 3项目组 4人员</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>发送时间</t>
+  </si>
+  <si>
+    <t>MESSAGE_ID</t>
+  </si>
+  <si>
+    <t>消息状态 0未读 1已读 -1删除</t>
+  </si>
+  <si>
+    <t>人员编码</t>
+  </si>
+  <si>
+    <t>人员名称</t>
+  </si>
+  <si>
+    <t>人员职位</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>人员年龄</t>
+  </si>
+  <si>
+    <t>人员备注</t>
+  </si>
+  <si>
+    <t>人员电话</t>
+  </si>
+  <si>
+    <t>SEX</t>
+  </si>
+  <si>
+    <t>人员性别(1男 2女)</t>
+  </si>
+  <si>
+    <t>DATE_DAY</t>
+  </si>
+  <si>
+    <t>打卡日期</t>
+  </si>
+  <si>
+    <t>DATE_TIME</t>
+  </si>
+  <si>
+    <t>打卡时间</t>
+  </si>
+  <si>
+    <t>IBEACON_ID</t>
+  </si>
+  <si>
+    <t>打卡ibeacon设备ID</t>
+  </si>
+  <si>
+    <t>SUPPLEMENT_USER_ID</t>
+  </si>
+  <si>
+    <t>补签人员</t>
+  </si>
+  <si>
+    <t>SUPPLEMENT_REASON</t>
+  </si>
+  <si>
+    <t>补签原因</t>
+  </si>
+  <si>
+    <t>BIND_TIME</t>
+  </si>
+  <si>
+    <t>绑定时间</t>
+  </si>
+  <si>
+    <t>PHONE_TYPE</t>
+  </si>
+  <si>
+    <t>手机类型(1 IOS 2 Android)</t>
+  </si>
+  <si>
+    <t>PHONE_CID</t>
+  </si>
+  <si>
+    <t>VARCHAR2(128)</t>
+  </si>
+  <si>
+    <t>手机CID</t>
+  </si>
+  <si>
+    <t>PHONE_STATE</t>
+  </si>
+  <si>
+    <t>手机状态(1 启用 2停用)</t>
+  </si>
+  <si>
     <t>PHONE_CODE</t>
   </si>
   <si>
-    <t>VARCHAR2(128)</t>
-  </si>
-  <si>
     <t>手机设备号</t>
   </si>
   <si>
-    <t>PHONE_STATE</t>
-  </si>
-  <si>
-    <t>NUMBER(22)</t>
-  </si>
-  <si>
-    <t>手机状态(1 启用 2停用)</t>
-  </si>
-  <si>
-    <t>PHONE_CID</t>
-  </si>
-  <si>
-    <t>手机CID</t>
-  </si>
-  <si>
-    <t>PHONE_TYPE</t>
-  </si>
-  <si>
-    <t>手机类型(1 IOS 2 Android)</t>
-  </si>
-  <si>
-    <t>BIND_TIME</t>
-  </si>
-  <si>
-    <t>DATE(7)</t>
-  </si>
-  <si>
-    <t>绑定时间</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>PRI</t>
-  </si>
-  <si>
-    <t>公司ID</t>
-  </si>
-  <si>
-    <t>CODE</t>
-  </si>
-  <si>
-    <t>公司编码</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>公司名称</t>
-  </si>
-  <si>
-    <t>PARENT_ID</t>
-  </si>
-  <si>
-    <t>上级公司ID</t>
-  </si>
-  <si>
-    <t>LEADER</t>
-  </si>
-  <si>
-    <t>公司负责人</t>
-  </si>
-  <si>
-    <t>PHONE</t>
-  </si>
-  <si>
-    <t>联系电话</t>
-  </si>
-  <si>
-    <t>STATE</t>
-  </si>
-  <si>
-    <t>公司状态</t>
-  </si>
-  <si>
-    <t>REMARK</t>
-  </si>
-  <si>
-    <t>VARCHAR2(256)</t>
-  </si>
-  <si>
-    <t>公司备注</t>
-  </si>
-  <si>
-    <t>CREATE_TIME</t>
-  </si>
-  <si>
-    <t>创建时间</t>
-  </si>
-  <si>
-    <t>CREATE_USER</t>
-  </si>
-  <si>
-    <t>创建人</t>
-  </si>
-  <si>
-    <t>MODIFY_TIME</t>
-  </si>
-  <si>
-    <t>修改时间</t>
-  </si>
-  <si>
-    <t>MODIFY_USER</t>
-  </si>
-  <si>
-    <t>修改人</t>
-  </si>
-  <si>
-    <t>消息ID</t>
-  </si>
-  <si>
-    <t>TITLE</t>
-  </si>
-  <si>
-    <t>VARCHAR2(200)</t>
-  </si>
-  <si>
-    <t>消息标题</t>
-  </si>
-  <si>
-    <t>CONTENT</t>
-  </si>
-  <si>
-    <t>VARCHAR2(4000)</t>
-  </si>
-  <si>
-    <t>消息内容</t>
-  </si>
-  <si>
-    <t>TYPE</t>
-  </si>
-  <si>
-    <t>消息类型 1系统消息 2普通消息</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <t>发送时间</t>
-  </si>
-  <si>
-    <t>消息状态 0草稿 1已发送</t>
-  </si>
-  <si>
-    <t>SEND</t>
-  </si>
-  <si>
-    <t>发送人</t>
-  </si>
-  <si>
-    <t>RECEIVE_TYPE</t>
-  </si>
-  <si>
-    <t>接收类型 (系统消息)1全体 (普通消息)2公司 3项目组 4人员</t>
-  </si>
-  <si>
-    <t>RECEIVE</t>
-  </si>
-  <si>
-    <t>CLOB(4000)</t>
-  </si>
-  <si>
-    <t>接收对象</t>
-  </si>
-  <si>
-    <t>节日ID</t>
-  </si>
-  <si>
-    <t>HOLIDAY_NAME</t>
-  </si>
-  <si>
-    <t>节日名称</t>
-  </si>
-  <si>
-    <t>HOLIDAY_DATE</t>
-  </si>
-  <si>
-    <t>节日日期</t>
-  </si>
-  <si>
-    <t>HOLIDAY_STATE</t>
-  </si>
-  <si>
-    <t>节日状态(1放假，2上班)</t>
-  </si>
-  <si>
-    <t>人员编码</t>
-  </si>
-  <si>
-    <t>人员名称</t>
-  </si>
-  <si>
-    <t>人员职位</t>
-  </si>
-  <si>
-    <t>AGE</t>
-  </si>
-  <si>
-    <t>人员年龄</t>
-  </si>
-  <si>
-    <t>SEX</t>
-  </si>
-  <si>
-    <t>人员性别(1男 2女)</t>
-  </si>
-  <si>
-    <t>人员电话</t>
-  </si>
-  <si>
-    <t>人员备注</t>
+    <t>CONTRACT_NAME</t>
+  </si>
+  <si>
+    <t>合同名称</t>
+  </si>
+  <si>
+    <t>CONTRACT_NUMBER</t>
+  </si>
+  <si>
+    <t>合同编号</t>
+  </si>
+  <si>
+    <t>MANAGER</t>
+  </si>
+  <si>
+    <t>项目经理</t>
+  </si>
+  <si>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>项目编号</t>
+  </si>
+  <si>
+    <t>项目ID</t>
+  </si>
+  <si>
+    <t>START_DATE</t>
+  </si>
+  <si>
+    <t>项目开始时间</t>
+  </si>
+  <si>
+    <t>END_DATE</t>
   </si>
   <si>
     <t>PROJECT_ID</t>
   </si>
   <si>
-    <t>项目ID</t>
-  </si>
-  <si>
-    <t>IBEACON_ID</t>
-  </si>
-  <si>
-    <t>ibeacon设备ID</t>
+    <t>LEAVE_TIME</t>
+  </si>
+  <si>
+    <t>离开时间</t>
+  </si>
+  <si>
+    <t>状态 1 当前项目组 2历史项目组</t>
+  </si>
+  <si>
+    <t>JOIN_TIME</t>
+  </si>
+  <si>
+    <t>加入时间</t>
+  </si>
+  <si>
+    <t>计划ID</t>
+  </si>
+  <si>
+    <t>OVER_WORKING_TIME</t>
+  </si>
+  <si>
+    <t>计划加班时间</t>
+  </si>
+  <si>
+    <t>SATURDAY</t>
+  </si>
+  <si>
+    <t>周六计划</t>
+  </si>
+  <si>
+    <t>FRIDAY</t>
+  </si>
+  <si>
+    <t>周五计划</t>
+  </si>
+  <si>
+    <t>THURSDAY</t>
+  </si>
+  <si>
+    <t>周四计划</t>
+  </si>
+  <si>
+    <t>WEDNESDAY</t>
+  </si>
+  <si>
+    <t>周三计划</t>
+  </si>
+  <si>
+    <t>TUESDAY</t>
+  </si>
+  <si>
+    <t>周二计划</t>
+  </si>
+  <si>
+    <t>MONDAY</t>
+  </si>
+  <si>
+    <t>周一计划</t>
+  </si>
+  <si>
+    <t>SUNDAY</t>
+  </si>
+  <si>
+    <t>周日计划</t>
+  </si>
+  <si>
+    <t>OFF_WORKING_TIME</t>
+  </si>
+  <si>
+    <t>计划下班时间</t>
+  </si>
+  <si>
+    <t>WORKING_TIME</t>
+  </si>
+  <si>
+    <t>计划上班时间</t>
+  </si>
+  <si>
+    <t>计划结束时间</t>
+  </si>
+  <si>
+    <t>计划开始时间</t>
+  </si>
+  <si>
+    <t>计划名称</t>
+  </si>
+  <si>
+    <t>项目组ID</t>
+  </si>
+  <si>
+    <t>用户备注</t>
+  </si>
+  <si>
+    <t>用户状态(1 启用 2停用)</t>
+  </si>
+  <si>
+    <t>ACTIVATE</t>
+  </si>
+  <si>
+    <t>是否激活(1是 2否)</t>
+  </si>
+  <si>
+    <t>用户类型(1管理员 2外包人员)</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>用户密码</t>
   </si>
   <si>
     <t>LOGIN</t>
@@ -307,250 +525,58 @@
     <t>用户名</t>
   </si>
   <si>
-    <t>PASSWORD</t>
-  </si>
-  <si>
-    <t>用户密码</t>
-  </si>
-  <si>
-    <t>用户类型(1管理员 2外包人员)</t>
-  </si>
-  <si>
-    <t>ACTIVATE</t>
-  </si>
-  <si>
-    <t>是否激活(1是 2否)</t>
-  </si>
-  <si>
-    <t>用户状态(1 启用 2停用)</t>
-  </si>
-  <si>
-    <t>用户备注</t>
-  </si>
-  <si>
     <t>HEAD_IMAGE</t>
   </si>
   <si>
     <t>头像图片</t>
   </si>
   <si>
-    <t>项目编号</t>
-  </si>
-  <si>
-    <t>项目名称</t>
-  </si>
-  <si>
-    <t>MANAGER</t>
-  </si>
-  <si>
-    <t>项目经理</t>
-  </si>
-  <si>
-    <t>CONTRACT_NUMBER</t>
-  </si>
-  <si>
-    <t>合同编号</t>
-  </si>
-  <si>
-    <t>CONTRACT_NAME</t>
-  </si>
-  <si>
-    <t>合同名称</t>
-  </si>
-  <si>
-    <t>START_DATE</t>
-  </si>
-  <si>
-    <t>项目开始时间</t>
-  </si>
-  <si>
-    <t>END_DATE</t>
-  </si>
-  <si>
-    <t>MAJOR</t>
-  </si>
-  <si>
-    <t>ibeacon设备MAJOR</t>
-  </si>
-  <si>
-    <t>MINOR</t>
-  </si>
-  <si>
-    <t>ibeacon设备MINOR</t>
-  </si>
-  <si>
-    <t>ibeacon设备编码</t>
-  </si>
-  <si>
-    <t>ibeacon设备名称</t>
-  </si>
-  <si>
-    <t>ibeacon设备状态</t>
-  </si>
-  <si>
-    <t>ADDRESS</t>
-  </si>
-  <si>
-    <t>ibeacon设备地址</t>
-  </si>
-  <si>
-    <t>ibeacon设备备注</t>
-  </si>
-  <si>
-    <t>DATE_DAY</t>
-  </si>
-  <si>
-    <t>打卡日期</t>
-  </si>
-  <si>
-    <t>DATE_TIME</t>
-  </si>
-  <si>
-    <t>打卡时间</t>
-  </si>
-  <si>
-    <t>打卡ibeacon设备ID</t>
-  </si>
-  <si>
-    <t>COMPANY_ID</t>
-  </si>
-  <si>
-    <t>计划ID</t>
-  </si>
-  <si>
-    <t>项目组ID</t>
-  </si>
-  <si>
-    <t>计划名称</t>
-  </si>
-  <si>
-    <t>计划开始时间</t>
-  </si>
-  <si>
-    <t>计划结束时间</t>
-  </si>
-  <si>
-    <t>WORKING_TIME</t>
-  </si>
-  <si>
-    <t>计划上班时间</t>
-  </si>
-  <si>
-    <t>OFF_WORKING_TIME</t>
-  </si>
-  <si>
-    <t>计划下班时间</t>
-  </si>
-  <si>
-    <t>SUNDAY</t>
-  </si>
-  <si>
-    <t>周日计划</t>
-  </si>
-  <si>
-    <t>MONDAY</t>
-  </si>
-  <si>
-    <t>周一计划</t>
-  </si>
-  <si>
-    <t>TUESDAY</t>
-  </si>
-  <si>
-    <t>周二计划</t>
-  </si>
-  <si>
-    <t>WEDNESDAY</t>
-  </si>
-  <si>
-    <t>周三计划</t>
-  </si>
-  <si>
-    <t>THURSDAY</t>
-  </si>
-  <si>
-    <t>周四计划</t>
-  </si>
-  <si>
-    <t>FRIDAY</t>
-  </si>
-  <si>
-    <t>周五计划</t>
-  </si>
-  <si>
-    <t>SATURDAY</t>
-  </si>
-  <si>
-    <t>周六计划</t>
-  </si>
-  <si>
-    <t>OVER_WORKING_TIME</t>
-  </si>
-  <si>
-    <t>计划加班时间</t>
-  </si>
-  <si>
-    <t>JOIN_TIME</t>
-  </si>
-  <si>
-    <t>加入时间</t>
-  </si>
-  <si>
-    <t>状态 1 当前项目组 2历史项目组</t>
-  </si>
-  <si>
-    <t>LEAVE_TIME</t>
-  </si>
-  <si>
-    <t>离开时间</t>
-  </si>
-  <si>
-    <t>MESSAGE_ID</t>
-  </si>
-  <si>
-    <t>消息状态 0未读 1已读 -1删除</t>
+    <t>T_COMPANY</t>
+  </si>
+  <si>
+    <t>T_COMPANY_PERSON</t>
+  </si>
+  <si>
+    <t>T_COMPANY_USER</t>
+  </si>
+  <si>
+    <t>T_HOLIDAY</t>
+  </si>
+  <si>
+    <t>T_IBEACON</t>
+  </si>
+  <si>
+    <t>T_MESSAGE</t>
+  </si>
+  <si>
+    <t>T_MESSAGE_PERSON</t>
+  </si>
+  <si>
+    <t>T_PERSON</t>
+  </si>
+  <si>
+    <t>T_PERSON_ATTENDANCE</t>
   </si>
   <si>
     <t>T_PERSON_PHONE</t>
   </si>
   <si>
-    <t>T_COMPANY</t>
-  </si>
-  <si>
-    <t>T_MESSAGE</t>
-  </si>
-  <si>
-    <t>T_HOLIDAY</t>
-  </si>
-  <si>
-    <t>T_PERSON</t>
+    <t>T_PROJECT</t>
   </si>
   <si>
     <t>T_PROJECT_IBEACON</t>
   </si>
   <si>
+    <t>T_PROJECT_PERSON</t>
+  </si>
+  <si>
+    <t>T_PROJECT_PLAN</t>
+  </si>
+  <si>
+    <t>T_PROJECT_USER</t>
+  </si>
+  <si>
     <t>T_USER</t>
-  </si>
-  <si>
-    <t>T_PROJECT</t>
-  </si>
-  <si>
-    <t>T_IBEACON</t>
-  </si>
-  <si>
-    <t>T_PERSON_ATTENDANCE</t>
-  </si>
-  <si>
-    <t>T_COMPANY_PERSON</t>
-  </si>
-  <si>
-    <t>T_PROJECT_PLAN</t>
-  </si>
-  <si>
-    <t>T_PROJECT_PERSON</t>
-  </si>
-  <si>
-    <t>T_MESSAGE_PERSON</t>
   </si>
 </sst>
 </file>
@@ -680,90 +706,102 @@
   <sheetData>
     <row r="2">
       <c r="B2" t="s" s="3">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s" s="3">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s" s="3">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s" s="3">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s" s="3">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s" s="3">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s" s="3">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s" s="3">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s" s="3">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s" s="3">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s" s="3">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s" s="3">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s" s="3">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s" s="3">
-        <v>174</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s" s="3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s" s="3">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink location="#T_PERSON_PHONE!A1" ref="B2"/>
-    <hyperlink location="#T_COMPANY!A1" ref="B3"/>
-    <hyperlink location="#T_MESSAGE!A1" ref="B4"/>
+    <hyperlink location="#T_COMPANY!A1" ref="B2"/>
+    <hyperlink location="#T_COMPANY_PERSON!A1" ref="B3"/>
+    <hyperlink location="#T_COMPANY_USER!A1" ref="B4"/>
     <hyperlink location="#T_HOLIDAY!A1" ref="B5"/>
-    <hyperlink location="#T_PERSON!A1" ref="B6"/>
-    <hyperlink location="#T_PROJECT_IBEACON!A1" ref="B7"/>
-    <hyperlink location="#T_USER!A1" ref="B8"/>
-    <hyperlink location="#T_PROJECT!A1" ref="B9"/>
-    <hyperlink location="#T_IBEACON!A1" ref="B10"/>
-    <hyperlink location="#T_PERSON_ATTENDANCE!A1" ref="B11"/>
-    <hyperlink location="#T_COMPANY_PERSON!A1" ref="B12"/>
-    <hyperlink location="#T_PROJECT_PLAN!A1" ref="B13"/>
+    <hyperlink location="#T_IBEACON!A1" ref="B6"/>
+    <hyperlink location="#T_MESSAGE!A1" ref="B7"/>
+    <hyperlink location="#T_MESSAGE_PERSON!A1" ref="B8"/>
+    <hyperlink location="#T_PERSON!A1" ref="B9"/>
+    <hyperlink location="#T_PERSON_ATTENDANCE!A1" ref="B10"/>
+    <hyperlink location="#T_PERSON_PHONE!A1" ref="B11"/>
+    <hyperlink location="#T_PROJECT!A1" ref="B12"/>
+    <hyperlink location="#T_PROJECT_IBEACON!A1" ref="B13"/>
     <hyperlink location="#T_PROJECT_PERSON!A1" ref="B14"/>
-    <hyperlink location="#T_MESSAGE_PERSON!A1" ref="B15"/>
+    <hyperlink location="#T_PROJECT_PLAN!A1" ref="B15"/>
+    <hyperlink location="#T_PROJECT_USER!A1" ref="B16"/>
+    <hyperlink location="#T_USER!A1" ref="B17"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -805,22 +843,22 @@
         <f>row()-1</f>
       </c>
       <c r="B2" t="s" s="2">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s" s="2">
         <v>10</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>114</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -828,10 +866,10 @@
         <f>row()-1</f>
       </c>
       <c r="B3" t="s" s="2">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>9</v>
@@ -843,7 +881,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -851,22 +889,22 @@
         <f>row()-1</f>
       </c>
       <c r="B4" t="s" s="2">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>10</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5">
@@ -874,10 +912,10 @@
         <f>row()-1</f>
       </c>
       <c r="B5" t="s" s="2">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>9</v>
@@ -889,7 +927,7 @@
         <v>10</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6">
@@ -897,7 +935,7 @@
         <f>row()-1</f>
       </c>
       <c r="B6" t="s" s="2">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>8</v>
@@ -912,7 +950,7 @@
         <v>10</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
@@ -920,10 +958,10 @@
         <f>row()-1</f>
       </c>
       <c r="B7" t="s" s="2">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>9</v>
@@ -935,7 +973,7 @@
         <v>10</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
@@ -943,10 +981,10 @@
         <f>row()-1</f>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s" s="2">
         <v>9</v>
@@ -958,122 +996,7 @@
         <v>10</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>51</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1117,22 +1040,22 @@
         <f>row()-1</f>
       </c>
       <c r="B2" t="s" s="2">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s" s="2">
         <v>10</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3">
@@ -1140,10 +1063,10 @@
         <f>row()-1</f>
       </c>
       <c r="B3" t="s" s="2">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>9</v>
@@ -1155,7 +1078,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4">
@@ -1163,10 +1086,10 @@
         <f>row()-1</f>
       </c>
       <c r="B4" t="s" s="2">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>9</v>
@@ -1178,7 +1101,7 @@
         <v>10</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
@@ -1186,10 +1109,10 @@
         <f>row()-1</f>
       </c>
       <c r="B5" t="s" s="2">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>9</v>
@@ -1201,7 +1124,7 @@
         <v>10</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
@@ -1209,10 +1132,10 @@
         <f>row()-1</f>
       </c>
       <c r="B6" t="s" s="2">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>9</v>
@@ -1224,7 +1147,53 @@
         <v>10</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>127</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1268,7 +1237,7 @@
         <f>row()-1</f>
       </c>
       <c r="B2" t="s" s="2">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s" s="2">
         <v>8</v>
@@ -1283,7 +1252,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>7</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
@@ -1291,7 +1260,7 @@
         <f>row()-1</f>
       </c>
       <c r="B3" t="s" s="2">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>8</v>
@@ -1306,7 +1275,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>28</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4">
@@ -1314,7 +1283,7 @@
         <f>row()-1</f>
       </c>
       <c r="B4" t="s" s="2">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>8</v>
@@ -1329,7 +1298,237 @@
         <v>10</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>12</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1373,13 +1572,13 @@
         <f>row()-1</f>
       </c>
       <c r="B2" t="s" s="2">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s" s="2">
         <v>8</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>10</v>
@@ -1388,7 +1587,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3">
@@ -1396,13 +1595,13 @@
         <f>row()-1</f>
       </c>
       <c r="B3" t="s" s="2">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>8</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s" s="2">
         <v>10</v>
@@ -1411,7 +1610,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>130</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -1419,7 +1618,7 @@
         <f>row()-1</f>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>8</v>
@@ -1434,283 +1633,7 @@
         <v>10</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>153</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1754,13 +1677,13 @@
         <f>row()-1</f>
       </c>
       <c r="B2" t="s" s="2">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s" s="2">
         <v>8</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>10</v>
@@ -1769,7 +1692,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>7</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3">
@@ -1777,13 +1700,13 @@
         <f>row()-1</f>
       </c>
       <c r="B3" t="s" s="2">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>8</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s" s="2">
         <v>10</v>
@@ -1792,7 +1715,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>88</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -1800,7 +1723,7 @@
         <f>row()-1</f>
       </c>
       <c r="B4" t="s" s="2">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>8</v>
@@ -1815,7 +1738,7 @@
         <v>10</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -1823,10 +1746,10 @@
         <f>row()-1</f>
       </c>
       <c r="B5" t="s" s="2">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>9</v>
@@ -1838,7 +1761,7 @@
         <v>10</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>155</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6">
@@ -1846,10 +1769,10 @@
         <f>row()-1</f>
       </c>
       <c r="B6" t="s" s="2">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>9</v>
@@ -1861,7 +1784,7 @@
         <v>10</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
@@ -1869,10 +1792,10 @@
         <f>row()-1</f>
       </c>
       <c r="B7" t="s" s="2">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>9</v>
@@ -1884,7 +1807,7 @@
         <v>10</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1928,13 +1851,13 @@
         <f>row()-1</f>
       </c>
       <c r="B2" t="s" s="2">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s" s="2">
         <v>8</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>10</v>
@@ -1943,7 +1866,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>7</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3">
@@ -1951,7 +1874,7 @@
         <f>row()-1</f>
       </c>
       <c r="B3" t="s" s="2">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>8</v>
@@ -1966,7 +1889,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>52</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4">
@@ -1974,7 +1897,7 @@
         <f>row()-1</f>
       </c>
       <c r="B4" t="s" s="2">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>8</v>
@@ -1989,7 +1912,7 @@
         <v>10</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>12</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5">
@@ -1997,10 +1920,496 @@
         <f>row()-1</f>
       </c>
       <c r="B5" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>39</v>
       </c>
+      <c r="C3" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>24</v>
+      </c>
       <c r="C5" t="s" s="2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>9</v>
@@ -2012,7 +2421,214 @@
         <v>10</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s" s="2">
         <v>160</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2687,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -2079,7 +2695,7 @@
         <f>row()-1</f>
       </c>
       <c r="B3" t="s" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>8</v>
@@ -2094,7 +2710,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -2102,10 +2718,10 @@
         <f>row()-1</f>
       </c>
       <c r="B4" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>9</v>
@@ -2128,19 +2744,19 @@
         <v>16</v>
       </c>
       <c r="C5" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s" s="2">
         <v>17</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -2148,22 +2764,22 @@
         <f>row()-1</f>
       </c>
       <c r="B6" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="C6" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>9</v>
-      </c>
       <c r="E6" t="s" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>10</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -2171,10 +2787,10 @@
         <f>row()-1</f>
       </c>
       <c r="B7" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>9</v>
@@ -2186,7 +2802,7 @@
         <v>10</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -2194,10 +2810,10 @@
         <f>row()-1</f>
       </c>
       <c r="B8" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s" s="2">
         <v>9</v>
@@ -2209,7 +2825,122 @@
         <v>10</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2253,22 +2984,22 @@
         <f>row()-1</f>
       </c>
       <c r="B2" t="s" s="2">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s" s="2">
         <v>8</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s" s="2">
         <v>10</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -2276,7 +3007,7 @@
         <f>row()-1</f>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>8</v>
@@ -2291,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -2299,7 +3030,7 @@
         <f>row()-1</f>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>8</v>
@@ -2314,214 +3045,7 @@
         <v>10</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2565,22 +3089,22 @@
         <f>row()-1</f>
       </c>
       <c r="B2" t="s" s="2">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s" s="2">
         <v>8</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s" s="2">
         <v>10</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -2588,10 +3112,10 @@
         <f>row()-1</f>
       </c>
       <c r="B3" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>9</v>
@@ -2603,7 +3127,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
@@ -2611,10 +3135,10 @@
         <f>row()-1</f>
       </c>
       <c r="B4" t="s" s="2">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>9</v>
@@ -2626,145 +3150,7 @@
         <v>10</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2808,10 +3194,10 @@
         <f>row()-1</f>
       </c>
       <c r="B2" t="s" s="2">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s" s="2">
         <v>9</v>
@@ -2823,7 +3209,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>71</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -2831,10 +3217,10 @@
         <f>row()-1</f>
       </c>
       <c r="B3" t="s" s="2">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>9</v>
@@ -2846,7 +3232,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>73</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -2854,10 +3240,10 @@
         <f>row()-1</f>
       </c>
       <c r="B4" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>9</v>
@@ -2869,7 +3255,7 @@
         <v>10</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -2877,10 +3263,10 @@
         <f>row()-1</f>
       </c>
       <c r="B5" t="s" s="2">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>9</v>
@@ -2892,7 +3278,7 @@
         <v>10</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -2900,10 +3286,10 @@
         <f>row()-1</f>
       </c>
       <c r="B6" t="s" s="2">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>9</v>
@@ -2915,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -2946,22 +3332,22 @@
         <f>row()-1</f>
       </c>
       <c r="B8" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>49</v>
       </c>
     </row>
     <row r="9">
@@ -2969,22 +3355,22 @@
         <f>row()-1</f>
       </c>
       <c r="B9" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3028,22 +3414,22 @@
         <f>row()-1</f>
       </c>
       <c r="B2" t="s" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s" s="2">
         <v>8</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s" s="2">
         <v>10</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -3051,7 +3437,7 @@
         <f>row()-1</f>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>8</v>
@@ -3066,7 +3452,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -3074,22 +3460,22 @@
         <f>row()-1</f>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>8</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>10</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>79</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -3097,10 +3483,10 @@
         <f>row()-1</f>
       </c>
       <c r="B5" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>9</v>
@@ -3112,7 +3498,7 @@
         <v>10</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -3120,10 +3506,10 @@
         <f>row()-1</f>
       </c>
       <c r="B6" t="s" s="2">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>9</v>
@@ -3135,7 +3521,7 @@
         <v>10</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -3143,10 +3529,10 @@
         <f>row()-1</f>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>9</v>
@@ -3158,7 +3544,7 @@
         <v>10</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -3166,7 +3552,7 @@
         <f>row()-1</f>
       </c>
       <c r="B8" t="s" s="2">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>8</v>
@@ -3181,7 +3567,7 @@
         <v>10</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>85</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -3189,10 +3575,10 @@
         <f>row()-1</f>
       </c>
       <c r="B9" t="s" s="2">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>9</v>
@@ -3204,7 +3590,7 @@
         <v>10</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>86</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -3212,10 +3598,10 @@
         <f>row()-1</f>
       </c>
       <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>9</v>
@@ -3227,7 +3613,7 @@
         <v>10</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -3235,10 +3621,10 @@
         <f>row()-1</f>
       </c>
       <c r="B11" t="s" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>9</v>
@@ -3250,7 +3636,7 @@
         <v>10</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -3258,10 +3644,10 @@
         <f>row()-1</f>
       </c>
       <c r="B12" t="s" s="2">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>9</v>
@@ -3273,7 +3659,7 @@
         <v>10</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
@@ -3281,10 +3667,10 @@
         <f>row()-1</f>
       </c>
       <c r="B13" t="s" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>9</v>
@@ -3296,7 +3682,7 @@
         <v>10</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3340,13 +3726,13 @@
         <f>row()-1</f>
       </c>
       <c r="B2" t="s" s="2">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>10</v>
@@ -3355,7 +3741,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -3363,10 +3749,10 @@
         <f>row()-1</f>
       </c>
       <c r="B3" t="s" s="2">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>9</v>
@@ -3378,7 +3764,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -3386,22 +3772,160 @@
         <f>row()-1</f>
       </c>
       <c r="B4" t="s" s="2">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>8</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>10</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>90</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <f>row()-1</f>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3445,22 +3969,22 @@
         <f>row()-1</f>
       </c>
       <c r="B2" t="s" s="2">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s" s="2">
         <v>8</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s" s="2">
         <v>10</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -3468,7 +3992,7 @@
         <f>row()-1</f>
       </c>
       <c r="B3" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>8</v>
@@ -3483,7 +4007,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
@@ -3491,13 +4015,13 @@
         <f>row()-1</f>
       </c>
       <c r="B4" t="s" s="2">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s" s="2">
         <v>10</v>
@@ -3506,7 +4030,7 @@
         <v>10</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>94</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -3514,10 +4038,10 @@
         <f>row()-1</f>
       </c>
       <c r="B5" t="s" s="2">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>9</v>
@@ -3529,214 +4053,7 @@
         <v>10</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3780,22 +4097,22 @@
         <f>row()-1</f>
       </c>
       <c r="B2" t="s" s="2">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s" s="2">
         <v>8</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s" s="2">
         <v>10</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>88</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -3803,7 +4120,7 @@
         <f>row()-1</f>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>8</v>
@@ -3818,7 +4135,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
@@ -3826,7 +4143,7 @@
         <f>row()-1</f>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>8</v>
@@ -3841,7 +4158,7 @@
         <v>10</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
@@ -3849,7 +4166,7 @@
         <f>row()-1</f>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>8</v>
@@ -3864,7 +4181,7 @@
         <v>10</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -3872,10 +4189,10 @@
         <f>row()-1</f>
       </c>
       <c r="B6" t="s" s="2">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>9</v>
@@ -3887,7 +4204,7 @@
         <v>10</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -3895,7 +4212,7 @@
         <f>row()-1</f>
       </c>
       <c r="B7" t="s" s="2">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>8</v>
@@ -3910,7 +4227,7 @@
         <v>10</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>107</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -3918,7 +4235,7 @@
         <f>row()-1</f>
       </c>
       <c r="B8" t="s" s="2">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>8</v>
@@ -3933,7 +4250,7 @@
         <v>10</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>109</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -3941,10 +4258,10 @@
         <f>row()-1</f>
       </c>
       <c r="B9" t="s" s="2">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>9</v>
@@ -3956,7 +4273,7 @@
         <v>10</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>111</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -3964,10 +4281,10 @@
         <f>row()-1</f>
       </c>
       <c r="B10" t="s" s="2">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>9</v>
@@ -3979,7 +4296,7 @@
         <v>10</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>111</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
@@ -3987,10 +4304,10 @@
         <f>row()-1</f>
       </c>
       <c r="B11" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>9</v>
@@ -4002,7 +4319,7 @@
         <v>10</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
@@ -4010,10 +4327,10 @@
         <f>row()-1</f>
       </c>
       <c r="B12" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>9</v>
@@ -4025,7 +4342,7 @@
         <v>10</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>47</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
@@ -4033,10 +4350,10 @@
         <f>row()-1</f>
       </c>
       <c r="B13" t="s" s="2">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>9</v>
@@ -4048,30 +4365,7 @@
         <v>10</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2">
-        <f>row()-1</f>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
